--- a/CO2 Ryan Meadows.xlsx
+++ b/CO2 Ryan Meadows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm0990889\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D4759-4AB1-4392-9AD3-37510FE63518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C01E8-142C-48D7-895B-1710A9B2DA33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6156" yWindow="1488" windowWidth="21600" windowHeight="11832" activeTab="1" xr2:uid="{F4375E74-637B-44C3-817D-6F7E5A51A44B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Years Since 1960</t>
+  </si>
+  <si>
+    <t>CO2 Concentration In Mauna Loa</t>
   </si>
 </sst>
 </file>
@@ -187,11 +190,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 1'!$B$1</c:f>
+              <c:f>'Part 1'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mauna Loa</c:v>
+                  <c:v>CO2 Concentration In Mauna Loa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -284,7 +287,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Part 1'!$A$2:$A$63</c:f>
+              <c:f>'Part 1'!$B$4:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -479,7 +482,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Part 1'!$B$2:$B$63</c:f>
+              <c:f>'Part 1'!$D$4:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -1098,11 +1101,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 1'!$B$1</c:f>
+              <c:f>'Part 1'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mauna Loa</c:v>
+                  <c:v>CO2 Concentration In Mauna Loa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1182,7 +1185,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Part 1'!$A$2:$A$63</c:f>
+              <c:f>'Part 1'!$B$4:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -1377,7 +1380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Part 1'!$B$2:$B$63</c:f>
+              <c:f>'Part 1'!$D$4:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -1997,11 +2000,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 1'!$B$1</c:f>
+              <c:f>'Part 1'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mauna Loa</c:v>
+                  <c:v>CO2 Concentration In Mauna Loa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2080,7 +2083,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Part 1'!$A$2:$A$63</c:f>
+              <c:f>'Part 1'!$B$4:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -2275,7 +2278,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Part 1'!$B$2:$B$63</c:f>
+              <c:f>'Part 1'!$D$4:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -2796,6 +2799,2550 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 Concentration In Mauna Loa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15740485564304463"/>
+                  <c:y val="-0.20957703670747496"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 1'!$C$4:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 1'!$D$4:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>316.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>323.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>326.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>327.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>329.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>331.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>332.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>333.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>335.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>336.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>338.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>340.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>341.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>344.85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>347.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>349.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>351.69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>353.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>354.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>355.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>356.54</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>357.21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>358.96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360.97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>362.74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>363.88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>366.84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>368.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>371.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>373.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>375.98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>379.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>382.09</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>384.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>385.83</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>387.64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>390.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>391.85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>394.06</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>396.74</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>398.87</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>401.01</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>404.41</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>406.76</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>408.72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>411.66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>414.24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>416.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF0E-4B90-A274-93355594C597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="414046656"/>
+        <c:axId val="414045016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="414046656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Since 1960</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40806124234470692"/>
+              <c:y val="0.8908905437690402"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414045016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="414045016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CO2 COncentration (ppm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414046656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17759711286089236"/>
+          <c:y val="4.9882631203460433E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 Concentration In Mauna Loa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15862707786526684"/>
+                  <c:y val="-0.21249893771776784"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 1'!$C$4:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 1'!$D$4:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>316.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>323.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>326.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>327.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>329.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>331.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>332.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>333.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>335.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>336.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>338.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>340.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>341.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>344.85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>347.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>349.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>351.69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>353.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>354.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>355.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>356.54</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>357.21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>358.96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360.97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>362.74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>363.88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>366.84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>368.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>371.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>373.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>375.98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>379.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>382.09</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>384.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>385.83</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>387.64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>390.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>391.85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>394.06</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>396.74</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>398.87</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>401.01</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>404.41</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>406.76</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>408.72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>411.66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>414.24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>416.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-126D-4B73-9171-54582E3C365F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="414046656"/>
+        <c:axId val="414045016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="414046656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Since 1960</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40806124234470692"/>
+              <c:y val="0.8908905437690402"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414045016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="414045016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CO2 COncentration (ppm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414046656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 Concentration In Mauna Loa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13872440944881889"/>
+                  <c:y val="-0.20766635696825009"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 1'!$C$4:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 1'!$D$4:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>316.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>323.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>326.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>327.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>329.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>331.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>332.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>333.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>335.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>336.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>338.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>340.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>341.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>344.85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>347.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>349.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>351.69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>353.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>354.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>355.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>356.54</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>357.21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>358.96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360.97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>362.74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>363.88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>366.84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>368.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>371.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>373.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>375.98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>379.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>382.09</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>384.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>385.83</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>387.64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>390.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>391.85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>394.06</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>396.74</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>398.87</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>401.01</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>404.41</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>406.76</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>408.72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>411.66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>414.24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>416.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F8C-4017-A538-11CAE03F2A06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="414046656"/>
+        <c:axId val="414045016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="414046656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Since 1960</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40806124234470692"/>
+              <c:y val="0.8908905437690402"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414045016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="414045016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CO2 COncentration (ppm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414046656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2916,6 +5463,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4464,20 +7131,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>41741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>79842</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4504,16 +8719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>341219</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>154081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>341219</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4542,16 +8757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>87966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>126065</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4573,6 +8788,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598395</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293595</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDC4F19-ADE6-4A54-9C1B-AFC444E689CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49754</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11501E0D-C6B7-43E3-B1EB-69AD3FFB276D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>64994</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42C7643-E0A6-42E7-81AD-D6599C61F6F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4717,6 +9044,144 @@
             <a:t> Model</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02228</cdr:x>
+      <cdr:y>0.03462</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21538</cdr:x>
+      <cdr:y>0.10923</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8B023F-34D8-4D99-B4C1-13E80CFCA742}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="101857" y="97529"/>
+          <a:ext cx="882869" cy="210207"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Linear</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02228</cdr:x>
+      <cdr:y>0.03462</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21538</cdr:x>
+      <cdr:y>0.10923</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8B023F-34D8-4D99-B4C1-13E80CFCA742}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="101857" y="97529"/>
+          <a:ext cx="882869" cy="210207"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Quadratic</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02228</cdr:x>
+      <cdr:y>0.03462</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21538</cdr:x>
+      <cdr:y>0.10923</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8B023F-34D8-4D99-B4C1-13E80CFCA742}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="101857" y="97529"/>
+          <a:ext cx="882869" cy="210207"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Exponential</a:t>
+          </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -5311,519 +9776,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8933728-461B-4D69-B22E-6574FCC53F8A}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="B3:D65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1960</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>316.91000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1961</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1960</v>
-      </c>
-      <c r="B2">
-        <v>316.91000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1961</v>
-      </c>
-      <c r="B3">
+      <c r="D5">
         <v>317.64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>1962</v>
       </c>
-      <c r="B4">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>318.45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>1963</v>
       </c>
-      <c r="B5">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>318.99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8">
         <v>1964</v>
       </c>
-      <c r="B6">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>319.62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9">
         <v>1965</v>
       </c>
-      <c r="B7">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>320.04000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10">
         <v>1966</v>
       </c>
-      <c r="B8">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>321.37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>1967</v>
       </c>
-      <c r="B9">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
         <v>322.18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>1968</v>
       </c>
-      <c r="B10">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
         <v>323.05</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>1969</v>
       </c>
-      <c r="B11">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>324.62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>1970</v>
       </c>
-      <c r="B12">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <v>325.68</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>1971</v>
       </c>
-      <c r="B13">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
         <v>326.32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16">
         <v>1972</v>
       </c>
-      <c r="B14">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
         <v>327.45999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>1973</v>
       </c>
-      <c r="B15">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
         <v>329.68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>1974</v>
       </c>
-      <c r="B16">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
         <v>330.19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>1975</v>
       </c>
-      <c r="B17">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
         <v>331.12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>1976</v>
       </c>
-      <c r="B18">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
         <v>332.03</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>1977</v>
       </c>
-      <c r="B19">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
         <v>333.84</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>1978</v>
       </c>
-      <c r="B20">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
         <v>335.41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>1979</v>
       </c>
-      <c r="B21">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
         <v>336.84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>1980</v>
       </c>
-      <c r="B22">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
         <v>338.76</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>1981</v>
       </c>
-      <c r="B23">
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
         <v>340.12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>1982</v>
       </c>
-      <c r="B24">
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
         <v>341.48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>1983</v>
       </c>
-      <c r="B25">
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
         <v>343.15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>1984</v>
       </c>
-      <c r="B26">
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
         <v>344.85</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>1985</v>
       </c>
-      <c r="B27">
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
         <v>346.35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30">
         <v>1986</v>
       </c>
-      <c r="B28">
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
         <v>347.61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>1987</v>
       </c>
-      <c r="B29">
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31">
         <v>349.31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>1988</v>
       </c>
-      <c r="B30">
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
         <v>351.69</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
         <v>1989</v>
       </c>
-      <c r="B31">
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
         <v>353.2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
         <v>1990</v>
       </c>
-      <c r="B32">
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
         <v>354.45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
         <v>1991</v>
       </c>
-      <c r="B33">
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35">
         <v>355.7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
         <v>1992</v>
       </c>
-      <c r="B34">
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36">
         <v>356.54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
         <v>1993</v>
       </c>
-      <c r="B35">
+      <c r="C37">
+        <v>33</v>
+      </c>
+      <c r="D37">
         <v>357.21</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
         <v>1994</v>
       </c>
-      <c r="B36">
+      <c r="C38">
+        <v>34</v>
+      </c>
+      <c r="D38">
         <v>358.96</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39">
         <v>1995</v>
       </c>
-      <c r="B37">
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39">
         <v>360.97</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40">
         <v>1996</v>
       </c>
-      <c r="B38">
+      <c r="C40">
+        <v>36</v>
+      </c>
+      <c r="D40">
         <v>362.74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41">
         <v>1997</v>
       </c>
-      <c r="B39">
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41">
         <v>363.88</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42">
         <v>1998</v>
       </c>
-      <c r="B40">
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42">
         <v>366.84</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43">
         <v>1999</v>
       </c>
-      <c r="B41">
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43">
         <v>368.54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44">
         <v>2000</v>
       </c>
-      <c r="B42">
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
         <v>369.71</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45">
         <v>2001</v>
       </c>
-      <c r="B43">
+      <c r="C45">
+        <v>41</v>
+      </c>
+      <c r="D45">
         <v>371.32</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46">
         <v>2002</v>
       </c>
-      <c r="B44">
+      <c r="C46">
+        <v>42</v>
+      </c>
+      <c r="D46">
         <v>373.45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47">
         <v>2003</v>
       </c>
-      <c r="B45">
+      <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47">
         <v>375.98</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48">
         <v>2004</v>
       </c>
-      <c r="B46">
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48">
         <v>377.7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49">
         <v>2005</v>
       </c>
-      <c r="B47">
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49">
         <v>379.98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50">
         <v>2006</v>
       </c>
-      <c r="B48">
+      <c r="C50">
+        <v>46</v>
+      </c>
+      <c r="D50">
         <v>382.09</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51">
         <v>2007</v>
       </c>
-      <c r="B49">
+      <c r="C51">
+        <v>47</v>
+      </c>
+      <c r="D51">
         <v>384.02</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52">
         <v>2008</v>
       </c>
-      <c r="B50">
+      <c r="C52">
+        <v>48</v>
+      </c>
+      <c r="D52">
         <v>385.83</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53">
         <v>2009</v>
       </c>
-      <c r="B51">
+      <c r="C53">
+        <v>49</v>
+      </c>
+      <c r="D53">
         <v>387.64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54">
         <v>2010</v>
       </c>
-      <c r="B52">
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
         <v>390.1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55">
         <v>2011</v>
       </c>
-      <c r="B53">
+      <c r="C55">
+        <v>51</v>
+      </c>
+      <c r="D55">
         <v>391.85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56">
         <v>2012</v>
       </c>
-      <c r="B54">
+      <c r="C56">
+        <v>52</v>
+      </c>
+      <c r="D56">
         <v>394.06</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57">
         <v>2013</v>
       </c>
-      <c r="B55">
+      <c r="C57">
+        <v>53</v>
+      </c>
+      <c r="D57">
         <v>396.74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58">
         <v>2014</v>
       </c>
-      <c r="B56">
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58">
         <v>398.87</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59">
         <v>2015</v>
       </c>
-      <c r="B57">
+      <c r="C59">
+        <v>55</v>
+      </c>
+      <c r="D59">
         <v>401.01</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60">
         <v>2016</v>
       </c>
-      <c r="B58">
+      <c r="C60">
+        <v>56</v>
+      </c>
+      <c r="D60">
         <v>404.41</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61">
         <v>2017</v>
       </c>
-      <c r="B59">
+      <c r="C61">
+        <v>57</v>
+      </c>
+      <c r="D61">
         <v>406.76</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62">
         <v>2018</v>
       </c>
-      <c r="B60">
+      <c r="C62">
+        <v>58</v>
+      </c>
+      <c r="D62">
         <v>408.72</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63">
         <v>2019</v>
       </c>
-      <c r="B61">
+      <c r="C63">
+        <v>59</v>
+      </c>
+      <c r="D63">
         <v>411.66</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64">
         <v>2020</v>
       </c>
-      <c r="B62">
+      <c r="C64">
+        <v>60</v>
+      </c>
+      <c r="D64">
         <v>414.24</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65">
         <v>2021</v>
       </c>
-      <c r="B63">
+      <c r="C65">
+        <v>61</v>
+      </c>
+      <c r="D65">
         <v>416.45</v>
       </c>
     </row>
@@ -5838,7 +10493,7 @@
   <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CO2 Ryan Meadows.xlsx
+++ b/CO2 Ryan Meadows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm0990889\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surat\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C01E8-142C-48D7-895B-1710A9B2DA33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C6D448-2B4E-4716-A808-79ED18D69725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6156" yWindow="1488" windowWidth="21600" windowHeight="11832" activeTab="1" xr2:uid="{F4375E74-637B-44C3-817D-6F7E5A51A44B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F4375E74-637B-44C3-817D-6F7E5A51A44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -38,6 +49,9 @@
   </si>
   <si>
     <t>CO2 Concentration In Mauna Loa</t>
+  </si>
+  <si>
+    <t>ppm</t>
   </si>
 </sst>
 </file>
@@ -79,10 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,2705 +114,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CO2 Concentration In Mauna Loa</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11512540099154273"/>
-          <c:y val="0.12878472222222223"/>
-          <c:w val="0.83830052493438323"/>
-          <c:h val="0.71703712817147858"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Part 1'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2 Concentration In Mauna Loa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.8858085447652376E-2"/>
-                  <c:y val="-0.2371978893263342"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Part 1'!$B$4:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
-                <c:pt idx="0">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1961</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1963</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1967</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1969</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1972</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1974</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1978</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1979</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Part 1'!$D$4:$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
-                <c:pt idx="0">
-                  <c:v>316.91000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>317.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>318.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>318.99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>319.62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>320.04000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>321.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>322.18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>323.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>324.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>325.68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>326.32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>327.45999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>329.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>330.19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>331.12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>332.03</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>333.84</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>335.41</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>336.84</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>338.76</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>340.12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>341.48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>344.85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>346.35</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>347.61</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>349.31</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>351.69</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>353.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>354.45</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>355.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>356.54</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>357.21</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>358.96</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360.97</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>362.74</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>363.88</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>366.84</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>368.54</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>369.71</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>371.32</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>373.45</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>375.98</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>377.7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>379.98</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>382.09</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>384.02</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>385.83</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>387.64</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>390.1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>391.85</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>394.06</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>396.74</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>398.87</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>401.01</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>404.41</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>406.76</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>408.72</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>411.66</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>414.24</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>416.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-57AE-43A1-BF2D-8752C76ECBE4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1135388448"/>
-        <c:axId val="1135385536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1135388448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2023"/>
-          <c:min val="1960"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.48552420530766988"/>
-              <c:y val="0.8960413932633422"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1135385536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1135385536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CO2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Concentration (ppm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.5000000000000001E-2"/>
-              <c:y val="0.34795530766987454"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1135388448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1">
-          <a:alpha val="96000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CO2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Concentration In Mauna Loa</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11512540099154273"/>
-          <c:y val="0.12878472222222223"/>
-          <c:w val="0.83830052493438323"/>
-          <c:h val="0.71703712817147858"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Part 1'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2 Concentration In Mauna Loa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.2399752114319038E-2"/>
-                  <c:y val="-0.19317011154855643"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Part 1'!$B$4:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
-                <c:pt idx="0">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1961</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1963</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1967</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1969</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1972</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1974</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1978</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1979</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Part 1'!$D$4:$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
-                <c:pt idx="0">
-                  <c:v>316.91000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>317.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>318.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>318.99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>319.62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>320.04000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>321.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>322.18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>323.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>324.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>325.68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>326.32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>327.45999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>329.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>330.19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>331.12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>332.03</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>333.84</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>335.41</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>336.84</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>338.76</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>340.12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>341.48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>344.85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>346.35</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>347.61</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>349.31</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>351.69</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>353.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>354.45</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>355.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>356.54</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>357.21</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>358.96</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360.97</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>362.74</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>363.88</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>366.84</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>368.54</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>369.71</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>371.32</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>373.45</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>375.98</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>377.7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>379.98</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>382.09</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>384.02</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>385.83</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>387.64</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>390.1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>391.85</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>394.06</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>396.74</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>398.87</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>401.01</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>404.41</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>406.76</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>408.72</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>411.66</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>414.24</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>416.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6BCE-4B85-BE6F-D7846598C9E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1135388448"/>
-        <c:axId val="1135385536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1135388448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2023"/>
-          <c:min val="1960"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.4878390201224847"/>
-              <c:y val="0.90993028215223115"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1135385536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1135385536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CO2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Concentration(ppm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.5000000000000001E-2"/>
-              <c:y val="0.34795530766987454"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1135388448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1">
-          <a:alpha val="96000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CO2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Concentration In </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mauna Loa</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11512540099154273"/>
-          <c:y val="0.12878472222222223"/>
-          <c:w val="0.83830052493438323"/>
-          <c:h val="0.71703712817147858"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Part 1'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2 Concentration In Mauna Loa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.5802529892096824E-2"/>
-                  <c:y val="-0.22377706692913385"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Part 1'!$B$4:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
-                <c:pt idx="0">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1961</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1963</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1967</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1969</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1972</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1974</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1978</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1979</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Part 1'!$D$4:$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
-                <c:pt idx="0">
-                  <c:v>316.91000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>317.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>318.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>318.99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>319.62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>320.04000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>321.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>322.18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>323.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>324.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>325.68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>326.32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>327.45999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>329.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>330.19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>331.12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>332.03</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>333.84</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>335.41</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>336.84</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>338.76</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>340.12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>341.48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>344.85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>346.35</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>347.61</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>349.31</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>351.69</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>353.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>354.45</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>355.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>356.54</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>357.21</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>358.96</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360.97</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>362.74</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>363.88</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>366.84</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>368.54</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>369.71</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>371.32</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>373.45</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>375.98</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>377.7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>379.98</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>382.09</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>384.02</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>385.83</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>387.64</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>390.1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>391.85</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>394.06</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>396.74</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>398.87</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>401.01</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>404.41</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>406.76</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>408.72</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>411.66</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>414.24</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>416.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-92AE-4ACD-A505-91E2C06B7DAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1135388448"/>
-        <c:axId val="1135385536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1135388448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2023"/>
-          <c:min val="1960"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.4924686497521143"/>
-              <c:y val="0.90993028215223115"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1135385536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1135385536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CO2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Concentration(ppm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.5000000000000001E-2"/>
-              <c:y val="0.34795530766987454"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1135388448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1">
-          <a:alpha val="96000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId4"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3644,7 +958,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4498,7 +1812,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5343,6 +2657,2403 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CO2 Concentrations In Mauna</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Loa With Quarterly Oscilations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mauna Loa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 2'!$B$2:$B$249</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="248"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>25.75</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>28.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>31.75</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>32.25</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>32.75</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>35.25</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35.75</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>37.25</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>37.75</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>38.25</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>41.75</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>42.25</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43.25</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44.25</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44.75</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45.25</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45.75</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>47.25</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>47.75</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>49.25</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>49.75</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>50.25</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>51.25</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>52.75</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>53.25</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>54.25</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54.75</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>55.75</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>56.75</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>57.75</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>58.75</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>59.25</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>59.75</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>60.25</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>60.75</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>61.25</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>61.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 2'!$C$2:$C$249</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="248"/>
+                <c:pt idx="0">
+                  <c:v>316.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>319.41000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314.41000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>317.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>318.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>315.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>318.99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>321.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>318.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>316.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>319.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>322.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>319.62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>317.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>320.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>322.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>317.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321.37</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>323.87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>321.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>318.87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>322.18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>324.68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>322.18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>319.68</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>323.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>325.55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>323.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>320.55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>324.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>327.12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>324.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>322.12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>325.68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>328.18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>325.68</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>323.18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>326.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>328.82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>326.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>323.82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>327.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>329.96</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>327.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>324.95999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>329.68</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>332.18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>329.68</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>327.18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>330.19</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>332.69</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>330.19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>327.69</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>331.12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>333.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>331.12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>328.62</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>332.03</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>334.53</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>332.03</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>329.53</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>333.84</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>336.34</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>333.84</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>331.34</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>335.41</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>337.91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>335.41</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>332.91</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>336.84</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>339.34</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>336.84</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>334.34</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>338.76</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>341.26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>338.76</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>336.26</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>340.12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>342.62</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>340.12</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>337.62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>341.48</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>343.98</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>341.48</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>338.98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>345.65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>340.65</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>344.85</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>347.35</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>344.85</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>342.35</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>348.85</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>343.85</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>347.61</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>350.11</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>347.61</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>345.11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>349.31</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>351.81</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>349.31</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>346.81</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>351.69</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>354.19</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>351.69</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>349.19</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>353.2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>355.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>353.2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>350.7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>354.45</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>356.95</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>354.45</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>351.95</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>355.7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>358.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>355.7</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>353.2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>356.54</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>359.04</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>356.54</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>354.04</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>357.21</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>359.71</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>357.21</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>354.71</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>358.96</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>361.46</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>358.96</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>356.46</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>360.97</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>363.47</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>360.97</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>358.47</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>362.74</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>365.24</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>362.74</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>360.24</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>363.88</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>366.38</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>363.88</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>361.38</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>366.84</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>369.34</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>366.84</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>364.34</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>368.54</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>371.04</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>368.54</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>366.04</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>372.21</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>367.21</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>371.32</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>373.82</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>371.32</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>368.82</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>373.45</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>375.95</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>373.45</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>370.95</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>375.98</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>378.48</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>375.98</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>373.48</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>377.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>380.2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>377.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>375.2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>379.98</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>382.48</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>379.98</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>377.48</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>382.09</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>384.59</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>382.09</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>379.59</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>384.02</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>386.52</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>384.02</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>381.52</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>385.83</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>388.33</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>385.83</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>383.33</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>387.64</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>390.14</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>387.64</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>385.14</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>390.1</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>392.6</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>390.1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>387.6</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>391.85</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>394.35</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>391.85</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>389.35</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>394.06</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>396.56</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>394.06</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>391.56</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>396.74</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>399.24</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>396.74</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>394.24</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>398.87</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>401.37</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>398.87</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>396.37</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>401.01</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>403.51</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>401.01</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>398.51</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>404.41</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>406.91</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>404.41</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>401.91</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>406.76</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>409.26</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>406.76</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>404.26</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>408.72</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>411.22</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>408.72</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>406.22</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>411.66</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>414.16</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>411.66</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>409.16</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>414.24</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>416.74</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>414.24</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>411.74</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>416.45</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>418.95</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>416.45</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>413.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADF4-42D4-9031-9A261A78F825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1348965168"/>
+        <c:axId val="1348976816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1348965168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Since 1960</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1348976816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1348976816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CO2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Concentration (ppm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1348965168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CO2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Concetrations In Mauna Loa 1960 - 1961</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mauna Loa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 2'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 2'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>316.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>319.41000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314.41000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE15-43DB-AD59-769B7FC84AEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="906146928"/>
+        <c:axId val="906145680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="906146928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> After 1960</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906145680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="906145680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CO2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Concentration (ppm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906146928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5543,46 +5254,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8163,636 +7834,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>41741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>79842</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E349D9E2-108D-9510-FA96-2A54475DECDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>341219</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154081</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>341219</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>12887</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EEA162-0F4E-47EC-9A9E-D8DC48DDC5AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>421341</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>87966</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>421341</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>126065</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD4F61D-E29C-49E6-B7DE-E1899B0D5DC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -8823,7 +7866,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8861,7 +7904,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8899,7 +7942,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8909,149 +7952,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.02951</cdr:x>
-      <cdr:y>0.02734</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.23958</cdr:x>
-      <cdr:y>0.08724</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063F1C60-6BF6-56E8-FA97-0C37A60A61F9}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="161925" y="100013"/>
-          <a:ext cx="1152525" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Linear Model</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.02431</cdr:x>
-      <cdr:y>0.02083</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.24132</cdr:x>
-      <cdr:y>0.08854</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E92C3EF-E934-C49F-54F2-7B2509AACE3E}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="133350" y="76200"/>
-          <a:ext cx="1190625" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Quadratic Model</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.0191</cdr:x>
-      <cdr:y>0.03646</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.27083</cdr:x>
-      <cdr:y>0.10417</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A33EE31-B918-0A78-FA3B-4A25FC5B5BE9}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="104775" y="133350"/>
-          <a:ext cx="1381125" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Exponental</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Model</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -9097,7 +7997,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -9143,7 +8043,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -9189,8 +8089,81 @@
 </c:userShapes>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A0455C-D171-382A-FA1E-4A9F87B14D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>110937</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E430C2A-4D1C-5857-D9F2-AC5CD5375F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9488,308 +8461,22 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4472C4"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8933728-461B-4D69-B22E-6574FCC53F8A}">
   <dimension ref="B3:D65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -9800,7 +8487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1960</v>
       </c>
@@ -9811,7 +8498,7 @@
         <v>316.91000000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1961</v>
       </c>
@@ -9822,7 +8509,7 @@
         <v>317.64</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1962</v>
       </c>
@@ -9833,7 +8520,7 @@
         <v>318.45</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1963</v>
       </c>
@@ -9844,7 +8531,7 @@
         <v>318.99</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1964</v>
       </c>
@@ -9855,7 +8542,7 @@
         <v>319.62</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1965</v>
       </c>
@@ -9866,7 +8553,7 @@
         <v>320.04000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1966</v>
       </c>
@@ -9877,7 +8564,7 @@
         <v>321.37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1967</v>
       </c>
@@ -9888,7 +8575,7 @@
         <v>322.18</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1968</v>
       </c>
@@ -9899,7 +8586,7 @@
         <v>323.05</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1969</v>
       </c>
@@ -9910,7 +8597,7 @@
         <v>324.62</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1970</v>
       </c>
@@ -9921,7 +8608,7 @@
         <v>325.68</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1971</v>
       </c>
@@ -9932,7 +8619,7 @@
         <v>326.32</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1972</v>
       </c>
@@ -9943,7 +8630,7 @@
         <v>327.45999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1973</v>
       </c>
@@ -9954,7 +8641,7 @@
         <v>329.68</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1974</v>
       </c>
@@ -9965,7 +8652,7 @@
         <v>330.19</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1975</v>
       </c>
@@ -9976,7 +8663,7 @@
         <v>331.12</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1976</v>
       </c>
@@ -9987,7 +8674,7 @@
         <v>332.03</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1977</v>
       </c>
@@ -9998,7 +8685,7 @@
         <v>333.84</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1978</v>
       </c>
@@ -10009,7 +8696,7 @@
         <v>335.41</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1979</v>
       </c>
@@ -10020,7 +8707,7 @@
         <v>336.84</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1980</v>
       </c>
@@ -10031,7 +8718,7 @@
         <v>338.76</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1981</v>
       </c>
@@ -10042,7 +8729,7 @@
         <v>340.12</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1982</v>
       </c>
@@ -10053,7 +8740,7 @@
         <v>341.48</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1983</v>
       </c>
@@ -10064,7 +8751,7 @@
         <v>343.15</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1984</v>
       </c>
@@ -10075,7 +8762,7 @@
         <v>344.85</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1985</v>
       </c>
@@ -10086,7 +8773,7 @@
         <v>346.35</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1986</v>
       </c>
@@ -10097,7 +8784,7 @@
         <v>347.61</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1987</v>
       </c>
@@ -10108,7 +8795,7 @@
         <v>349.31</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1988</v>
       </c>
@@ -10119,7 +8806,7 @@
         <v>351.69</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1989</v>
       </c>
@@ -10130,7 +8817,7 @@
         <v>353.2</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1990</v>
       </c>
@@ -10141,7 +8828,7 @@
         <v>354.45</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1991</v>
       </c>
@@ -10152,7 +8839,7 @@
         <v>355.7</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1992</v>
       </c>
@@ -10163,7 +8850,7 @@
         <v>356.54</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1993</v>
       </c>
@@ -10174,7 +8861,7 @@
         <v>357.21</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1994</v>
       </c>
@@ -10185,7 +8872,7 @@
         <v>358.96</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1995</v>
       </c>
@@ -10196,7 +8883,7 @@
         <v>360.97</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1996</v>
       </c>
@@ -10207,7 +8894,7 @@
         <v>362.74</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1997</v>
       </c>
@@ -10218,7 +8905,7 @@
         <v>363.88</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1998</v>
       </c>
@@ -10229,7 +8916,7 @@
         <v>366.84</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1999</v>
       </c>
@@ -10240,7 +8927,7 @@
         <v>368.54</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2000</v>
       </c>
@@ -10251,7 +8938,7 @@
         <v>369.71</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2001</v>
       </c>
@@ -10262,7 +8949,7 @@
         <v>371.32</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2002</v>
       </c>
@@ -10273,7 +8960,7 @@
         <v>373.45</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2003</v>
       </c>
@@ -10284,7 +8971,7 @@
         <v>375.98</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2004</v>
       </c>
@@ -10295,7 +8982,7 @@
         <v>377.7</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2005</v>
       </c>
@@ -10306,7 +8993,7 @@
         <v>379.98</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2006</v>
       </c>
@@ -10317,7 +9004,7 @@
         <v>382.09</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2007</v>
       </c>
@@ -10328,7 +9015,7 @@
         <v>384.02</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2008</v>
       </c>
@@ -10339,7 +9026,7 @@
         <v>385.83</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>2009</v>
       </c>
@@ -10350,7 +9037,7 @@
         <v>387.64</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>2010</v>
       </c>
@@ -10361,7 +9048,7 @@
         <v>390.1</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2011</v>
       </c>
@@ -10372,7 +9059,7 @@
         <v>391.85</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>2012</v>
       </c>
@@ -10383,7 +9070,7 @@
         <v>394.06</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>2013</v>
       </c>
@@ -10394,7 +9081,7 @@
         <v>396.74</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>2014</v>
       </c>
@@ -10405,7 +9092,7 @@
         <v>398.87</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>2015</v>
       </c>
@@ -10416,7 +9103,7 @@
         <v>401.01</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>2016</v>
       </c>
@@ -10427,7 +9114,7 @@
         <v>404.41</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>2017</v>
       </c>
@@ -10438,7 +9125,7 @@
         <v>406.76</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>2018</v>
       </c>
@@ -10449,7 +9136,7 @@
         <v>408.72</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>2019</v>
       </c>
@@ -10460,7 +9147,7 @@
         <v>411.66</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>2020</v>
       </c>
@@ -10471,7 +9158,7 @@
         <v>414.24</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>2021</v>
       </c>
@@ -10490,20 +9177,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2058E52-A05B-405F-BCB6-82644467E36A}">
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10513,19 +9200,22 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1960</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>316.91000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+0.25</f>
         <v>1960.25</v>
@@ -10538,7 +9228,7 @@
         <v>319.41000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A2+0.5</f>
         <v>1960.5</v>
@@ -10551,7 +9241,7 @@
         <v>316.91000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A2+0.75</f>
         <v>1960.75</v>
@@ -10564,7 +9254,7 @@
         <v>314.41000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1961</v>
       </c>
@@ -10575,7 +9265,7 @@
         <v>317.64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+0.25</f>
         <v>1961.25</v>
@@ -10588,7 +9278,7 @@
         <v>320.14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>A6+0.5</f>
         <v>1961.5</v>
@@ -10601,7 +9291,7 @@
         <v>317.64</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A6+0.75</f>
         <v>1961.75</v>
@@ -10614,7 +9304,7 @@
         <v>315.14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1962</v>
       </c>
@@ -10625,7 +9315,7 @@
         <v>318.45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+0.25</f>
         <v>1962.25</v>
@@ -10638,7 +9328,7 @@
         <v>320.95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A10+0.5</f>
         <v>1962.5</v>
@@ -10651,7 +9341,7 @@
         <v>318.45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A10+0.75</f>
         <v>1962.75</v>
@@ -10664,7 +9354,7 @@
         <v>315.95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1963</v>
       </c>
@@ -10675,7 +9365,7 @@
         <v>318.99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>A14+0.25</f>
         <v>1963.25</v>
@@ -10688,7 +9378,7 @@
         <v>321.49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>A14+0.5</f>
         <v>1963.5</v>
@@ -10701,7 +9391,7 @@
         <v>318.99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>A14+0.75</f>
         <v>1963.75</v>
@@ -10714,7 +9404,7 @@
         <v>316.49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1964</v>
       </c>
@@ -10725,7 +9415,7 @@
         <v>319.62</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>A18+0.25</f>
         <v>1964.25</v>
@@ -10738,7 +9428,7 @@
         <v>322.12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>A18+0.5</f>
         <v>1964.5</v>
@@ -10751,7 +9441,7 @@
         <v>319.62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>A18+0.75</f>
         <v>1964.75</v>
@@ -10764,7 +9454,7 @@
         <v>317.12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1965</v>
       </c>
@@ -10775,7 +9465,7 @@
         <v>320.04000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A22+0.25</f>
         <v>1965.25</v>
@@ -10788,7 +9478,7 @@
         <v>322.54000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>A22+0.5</f>
         <v>1965.5</v>
@@ -10801,7 +9491,7 @@
         <v>320.04000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>A22+0.75</f>
         <v>1965.75</v>
@@ -10814,7 +9504,7 @@
         <v>317.54000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1966</v>
       </c>
@@ -10825,7 +9515,7 @@
         <v>321.37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>A26+0.25</f>
         <v>1966.25</v>
@@ -10838,7 +9528,7 @@
         <v>323.87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>A26+0.5</f>
         <v>1966.5</v>
@@ -10851,7 +9541,7 @@
         <v>321.37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>A26+0.75</f>
         <v>1966.75</v>
@@ -10864,7 +9554,7 @@
         <v>318.87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1967</v>
       </c>
@@ -10875,7 +9565,7 @@
         <v>322.18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>A30+0.25</f>
         <v>1967.25</v>
@@ -10888,7 +9578,7 @@
         <v>324.68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A30+0.5</f>
         <v>1967.5</v>
@@ -10901,7 +9591,7 @@
         <v>322.18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A30+0.75</f>
         <v>1967.75</v>
@@ -10914,7 +9604,7 @@
         <v>319.68</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1968</v>
       </c>
@@ -10925,7 +9615,7 @@
         <v>323.05</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>A34+0.25</f>
         <v>1968.25</v>
@@ -10938,7 +9628,7 @@
         <v>325.55</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A34+0.5</f>
         <v>1968.5</v>
@@ -10951,7 +9641,7 @@
         <v>323.05</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>A34+0.75</f>
         <v>1968.75</v>
@@ -10964,7 +9654,7 @@
         <v>320.55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1969</v>
       </c>
@@ -10975,7 +9665,7 @@
         <v>324.62</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A38+0.25</f>
         <v>1969.25</v>
@@ -10988,7 +9678,7 @@
         <v>327.12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A38+0.5</f>
         <v>1969.5</v>
@@ -11001,7 +9691,7 @@
         <v>324.62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>A38+0.75</f>
         <v>1969.75</v>
@@ -11014,7 +9704,7 @@
         <v>322.12</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1970</v>
       </c>
@@ -11025,7 +9715,7 @@
         <v>325.68</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>A42+0.25</f>
         <v>1970.25</v>
@@ -11038,7 +9728,7 @@
         <v>328.18</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>A42+0.5</f>
         <v>1970.5</v>
@@ -11051,7 +9741,7 @@
         <v>325.68</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A42+0.75</f>
         <v>1970.75</v>
@@ -11064,7 +9754,7 @@
         <v>323.18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1971</v>
       </c>
@@ -11075,7 +9765,7 @@
         <v>326.32</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>A46+0.25</f>
         <v>1971.25</v>
@@ -11088,7 +9778,7 @@
         <v>328.82</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>A46+0.5</f>
         <v>1971.5</v>
@@ -11101,7 +9791,7 @@
         <v>326.32</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>A46+0.75</f>
         <v>1971.75</v>
@@ -11114,7 +9804,7 @@
         <v>323.82</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1972</v>
       </c>
@@ -11125,7 +9815,7 @@
         <v>327.45999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>A50+0.25</f>
         <v>1972.25</v>
@@ -11138,7 +9828,7 @@
         <v>329.96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>A50+0.5</f>
         <v>1972.5</v>
@@ -11151,7 +9841,7 @@
         <v>327.45999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>A50+0.75</f>
         <v>1972.75</v>
@@ -11164,7 +9854,7 @@
         <v>324.95999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1973</v>
       </c>
@@ -11175,7 +9865,7 @@
         <v>329.68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>A54+0.25</f>
         <v>1973.25</v>
@@ -11188,7 +9878,7 @@
         <v>332.18</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>A54+0.5</f>
         <v>1973.5</v>
@@ -11201,7 +9891,7 @@
         <v>329.68</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>A54+0.75</f>
         <v>1973.75</v>
@@ -11214,7 +9904,7 @@
         <v>327.18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1974</v>
       </c>
@@ -11225,7 +9915,7 @@
         <v>330.19</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>A58+0.25</f>
         <v>1974.25</v>
@@ -11238,7 +9928,7 @@
         <v>332.69</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>A58+0.5</f>
         <v>1974.5</v>
@@ -11251,7 +9941,7 @@
         <v>330.19</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>A58+0.75</f>
         <v>1974.75</v>
@@ -11264,7 +9954,7 @@
         <v>327.69</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1975</v>
       </c>
@@ -11275,7 +9965,7 @@
         <v>331.12</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>A62+0.25</f>
         <v>1975.25</v>
@@ -11288,7 +9978,7 @@
         <v>333.62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>A62+0.5</f>
         <v>1975.5</v>
@@ -11301,7 +9991,7 @@
         <v>331.12</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>A62+0.75</f>
         <v>1975.75</v>
@@ -11314,7 +10004,7 @@
         <v>328.62</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1976</v>
       </c>
@@ -11325,7 +10015,7 @@
         <v>332.03</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>A66+0.25</f>
         <v>1976.25</v>
@@ -11338,7 +10028,7 @@
         <v>334.53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>A66+0.5</f>
         <v>1976.5</v>
@@ -11351,7 +10041,7 @@
         <v>332.03</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>A66+0.75</f>
         <v>1976.75</v>
@@ -11364,7 +10054,7 @@
         <v>329.53</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1977</v>
       </c>
@@ -11375,7 +10065,7 @@
         <v>333.84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>A70+0.25</f>
         <v>1977.25</v>
@@ -11388,7 +10078,7 @@
         <v>336.34</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>A70+0.5</f>
         <v>1977.5</v>
@@ -11401,7 +10091,7 @@
         <v>333.84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>A70+0.75</f>
         <v>1977.75</v>
@@ -11414,7 +10104,7 @@
         <v>331.34</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1978</v>
       </c>
@@ -11425,7 +10115,7 @@
         <v>335.41</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>A74+0.25</f>
         <v>1978.25</v>
@@ -11438,7 +10128,7 @@
         <v>337.91</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>A74+0.5</f>
         <v>1978.5</v>
@@ -11451,7 +10141,7 @@
         <v>335.41</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>A74+0.75</f>
         <v>1978.75</v>
@@ -11464,7 +10154,7 @@
         <v>332.91</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1979</v>
       </c>
@@ -11475,7 +10165,7 @@
         <v>336.84</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>A78+0.25</f>
         <v>1979.25</v>
@@ -11488,7 +10178,7 @@
         <v>339.34</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>A78+0.5</f>
         <v>1979.5</v>
@@ -11501,7 +10191,7 @@
         <v>336.84</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>A78+0.75</f>
         <v>1979.75</v>
@@ -11514,7 +10204,7 @@
         <v>334.34</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1980</v>
       </c>
@@ -11525,7 +10215,7 @@
         <v>338.76</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>A82+0.25</f>
         <v>1980.25</v>
@@ -11538,7 +10228,7 @@
         <v>341.26</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>A82+0.5</f>
         <v>1980.5</v>
@@ -11551,7 +10241,7 @@
         <v>338.76</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>A82+0.75</f>
         <v>1980.75</v>
@@ -11564,7 +10254,7 @@
         <v>336.26</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1981</v>
       </c>
@@ -11575,7 +10265,7 @@
         <v>340.12</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>A86+0.25</f>
         <v>1981.25</v>
@@ -11588,7 +10278,7 @@
         <v>342.62</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>A86+0.5</f>
         <v>1981.5</v>
@@ -11601,7 +10291,7 @@
         <v>340.12</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>A86+0.75</f>
         <v>1981.75</v>
@@ -11614,7 +10304,7 @@
         <v>337.62</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1982</v>
       </c>
@@ -11625,7 +10315,7 @@
         <v>341.48</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>A90+0.25</f>
         <v>1982.25</v>
@@ -11638,7 +10328,7 @@
         <v>343.98</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>A90+0.5</f>
         <v>1982.5</v>
@@ -11651,7 +10341,7 @@
         <v>341.48</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>A90+0.75</f>
         <v>1982.75</v>
@@ -11664,7 +10354,7 @@
         <v>338.98</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1983</v>
       </c>
@@ -11675,7 +10365,7 @@
         <v>343.15</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>A94+0.25</f>
         <v>1983.25</v>
@@ -11688,7 +10378,7 @@
         <v>345.65</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>A94+0.5</f>
         <v>1983.5</v>
@@ -11701,7 +10391,7 @@
         <v>343.15</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>A94+0.75</f>
         <v>1983.75</v>
@@ -11714,7 +10404,7 @@
         <v>340.65</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1984</v>
       </c>
@@ -11725,7 +10415,7 @@
         <v>344.85</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>A98+0.25</f>
         <v>1984.25</v>
@@ -11738,7 +10428,7 @@
         <v>347.35</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>A98+0.5</f>
         <v>1984.5</v>
@@ -11751,7 +10441,7 @@
         <v>344.85</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>A98+0.75</f>
         <v>1984.75</v>
@@ -11764,7 +10454,7 @@
         <v>342.35</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1985</v>
       </c>
@@ -11775,7 +10465,7 @@
         <v>346.35</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>A102+0.25</f>
         <v>1985.25</v>
@@ -11788,7 +10478,7 @@
         <v>348.85</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>A102+0.5</f>
         <v>1985.5</v>
@@ -11801,7 +10491,7 @@
         <v>346.35</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>A102+0.75</f>
         <v>1985.75</v>
@@ -11814,7 +10504,7 @@
         <v>343.85</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1986</v>
       </c>
@@ -11825,7 +10515,7 @@
         <v>347.61</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>A106+0.25</f>
         <v>1986.25</v>
@@ -11838,7 +10528,7 @@
         <v>350.11</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>A106+0.5</f>
         <v>1986.5</v>
@@ -11851,7 +10541,7 @@
         <v>347.61</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>A106+0.75</f>
         <v>1986.75</v>
@@ -11864,7 +10554,7 @@
         <v>345.11</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1987</v>
       </c>
@@ -11875,7 +10565,7 @@
         <v>349.31</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>A110+0.25</f>
         <v>1987.25</v>
@@ -11888,7 +10578,7 @@
         <v>351.81</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>A110+0.5</f>
         <v>1987.5</v>
@@ -11901,7 +10591,7 @@
         <v>349.31</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>A110+0.75</f>
         <v>1987.75</v>
@@ -11914,7 +10604,7 @@
         <v>346.81</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1988</v>
       </c>
@@ -11925,7 +10615,7 @@
         <v>351.69</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>A114+0.25</f>
         <v>1988.25</v>
@@ -11938,7 +10628,7 @@
         <v>354.19</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>A114+0.5</f>
         <v>1988.5</v>
@@ -11951,7 +10641,7 @@
         <v>351.69</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>A114+0.75</f>
         <v>1988.75</v>
@@ -11964,7 +10654,7 @@
         <v>349.19</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1989</v>
       </c>
@@ -11975,7 +10665,7 @@
         <v>353.2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>A118+0.25</f>
         <v>1989.25</v>
@@ -11988,7 +10678,7 @@
         <v>355.7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>A118+0.5</f>
         <v>1989.5</v>
@@ -12001,7 +10691,7 @@
         <v>353.2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>A118+0.75</f>
         <v>1989.75</v>
@@ -12014,7 +10704,7 @@
         <v>350.7</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1990</v>
       </c>
@@ -12025,7 +10715,7 @@
         <v>354.45</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>A122+0.25</f>
         <v>1990.25</v>
@@ -12038,7 +10728,7 @@
         <v>356.95</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>A122+0.5</f>
         <v>1990.5</v>
@@ -12051,7 +10741,7 @@
         <v>354.45</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>A122+0.75</f>
         <v>1990.75</v>
@@ -12064,7 +10754,7 @@
         <v>351.95</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1991</v>
       </c>
@@ -12075,7 +10765,7 @@
         <v>355.7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>A126+0.25</f>
         <v>1991.25</v>
@@ -12088,7 +10778,7 @@
         <v>358.2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>A126+0.5</f>
         <v>1991.5</v>
@@ -12101,7 +10791,7 @@
         <v>355.7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>A126+0.75</f>
         <v>1991.75</v>
@@ -12114,7 +10804,7 @@
         <v>353.2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1992</v>
       </c>
@@ -12125,7 +10815,7 @@
         <v>356.54</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>A130+0.25</f>
         <v>1992.25</v>
@@ -12138,7 +10828,7 @@
         <v>359.04</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>A130+0.5</f>
         <v>1992.5</v>
@@ -12151,7 +10841,7 @@
         <v>356.54</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>A130+0.75</f>
         <v>1992.75</v>
@@ -12164,7 +10854,7 @@
         <v>354.04</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1993</v>
       </c>
@@ -12175,7 +10865,7 @@
         <v>357.21</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>A134+0.25</f>
         <v>1993.25</v>
@@ -12188,7 +10878,7 @@
         <v>359.71</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>A134+0.5</f>
         <v>1993.5</v>
@@ -12201,7 +10891,7 @@
         <v>357.21</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>A134+0.75</f>
         <v>1993.75</v>
@@ -12214,7 +10904,7 @@
         <v>354.71</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1994</v>
       </c>
@@ -12225,7 +10915,7 @@
         <v>358.96</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>A138+0.25</f>
         <v>1994.25</v>
@@ -12238,7 +10928,7 @@
         <v>361.46</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>A138+0.5</f>
         <v>1994.5</v>
@@ -12251,7 +10941,7 @@
         <v>358.96</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>A138+0.75</f>
         <v>1994.75</v>
@@ -12264,7 +10954,7 @@
         <v>356.46</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1995</v>
       </c>
@@ -12275,7 +10965,7 @@
         <v>360.97</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>A142+0.25</f>
         <v>1995.25</v>
@@ -12288,7 +10978,7 @@
         <v>363.47</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>A142+0.5</f>
         <v>1995.5</v>
@@ -12301,7 +10991,7 @@
         <v>360.97</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>A142+0.75</f>
         <v>1995.75</v>
@@ -12314,7 +11004,7 @@
         <v>358.47</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1996</v>
       </c>
@@ -12325,7 +11015,7 @@
         <v>362.74</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>A146+0.25</f>
         <v>1996.25</v>
@@ -12338,7 +11028,7 @@
         <v>365.24</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>A146+0.5</f>
         <v>1996.5</v>
@@ -12351,7 +11041,7 @@
         <v>362.74</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>A146+0.75</f>
         <v>1996.75</v>
@@ -12364,7 +11054,7 @@
         <v>360.24</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1997</v>
       </c>
@@ -12375,7 +11065,7 @@
         <v>363.88</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>A150+0.25</f>
         <v>1997.25</v>
@@ -12388,7 +11078,7 @@
         <v>366.38</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>A150+0.5</f>
         <v>1997.5</v>
@@ -12401,7 +11091,7 @@
         <v>363.88</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>A150+0.75</f>
         <v>1997.75</v>
@@ -12414,7 +11104,7 @@
         <v>361.38</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1998</v>
       </c>
@@ -12425,7 +11115,7 @@
         <v>366.84</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>A154+0.25</f>
         <v>1998.25</v>
@@ -12438,7 +11128,7 @@
         <v>369.34</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>A154+0.5</f>
         <v>1998.5</v>
@@ -12451,7 +11141,7 @@
         <v>366.84</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <f>A154+0.75</f>
         <v>1998.75</v>
@@ -12464,7 +11154,7 @@
         <v>364.34</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1999</v>
       </c>
@@ -12475,7 +11165,7 @@
         <v>368.54</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>A158+0.25</f>
         <v>1999.25</v>
@@ -12488,7 +11178,7 @@
         <v>371.04</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>A158+0.5</f>
         <v>1999.5</v>
@@ -12501,7 +11191,7 @@
         <v>368.54</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>A158+0.75</f>
         <v>1999.75</v>
@@ -12514,7 +11204,7 @@
         <v>366.04</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2000</v>
       </c>
@@ -12525,7 +11215,7 @@
         <v>369.71</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>A162+0.25</f>
         <v>2000.25</v>
@@ -12538,7 +11228,7 @@
         <v>372.21</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>A162+0.5</f>
         <v>2000.5</v>
@@ -12551,7 +11241,7 @@
         <v>369.71</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>A162+0.75</f>
         <v>2000.75</v>
@@ -12564,7 +11254,7 @@
         <v>367.21</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2001</v>
       </c>
@@ -12575,7 +11265,7 @@
         <v>371.32</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>A166+0.25</f>
         <v>2001.25</v>
@@ -12588,7 +11278,7 @@
         <v>373.82</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>A166+0.5</f>
         <v>2001.5</v>
@@ -12601,7 +11291,7 @@
         <v>371.32</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>A166+0.75</f>
         <v>2001.75</v>
@@ -12614,7 +11304,7 @@
         <v>368.82</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2002</v>
       </c>
@@ -12625,7 +11315,7 @@
         <v>373.45</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>A170+0.25</f>
         <v>2002.25</v>
@@ -12638,7 +11328,7 @@
         <v>375.95</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>A170+0.5</f>
         <v>2002.5</v>
@@ -12651,7 +11341,7 @@
         <v>373.45</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>A170+0.75</f>
         <v>2002.75</v>
@@ -12664,7 +11354,7 @@
         <v>370.95</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2003</v>
       </c>
@@ -12675,7 +11365,7 @@
         <v>375.98</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>A174+0.25</f>
         <v>2003.25</v>
@@ -12688,7 +11378,7 @@
         <v>378.48</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>A174+0.5</f>
         <v>2003.5</v>
@@ -12701,7 +11391,7 @@
         <v>375.98</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>A174+0.75</f>
         <v>2003.75</v>
@@ -12714,7 +11404,7 @@
         <v>373.48</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2004</v>
       </c>
@@ -12725,7 +11415,7 @@
         <v>377.7</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>A178+0.25</f>
         <v>2004.25</v>
@@ -12738,7 +11428,7 @@
         <v>380.2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>A178+0.5</f>
         <v>2004.5</v>
@@ -12751,7 +11441,7 @@
         <v>377.7</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>A178+0.75</f>
         <v>2004.75</v>
@@ -12764,7 +11454,7 @@
         <v>375.2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2005</v>
       </c>
@@ -12775,7 +11465,7 @@
         <v>379.98</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>A182+0.25</f>
         <v>2005.25</v>
@@ -12788,7 +11478,7 @@
         <v>382.48</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>A182+0.5</f>
         <v>2005.5</v>
@@ -12801,7 +11491,7 @@
         <v>379.98</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>A182+0.75</f>
         <v>2005.75</v>
@@ -12814,7 +11504,7 @@
         <v>377.48</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2006</v>
       </c>
@@ -12825,7 +11515,7 @@
         <v>382.09</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>A186+0.25</f>
         <v>2006.25</v>
@@ -12838,7 +11528,7 @@
         <v>384.59</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>A186+0.5</f>
         <v>2006.5</v>
@@ -12851,7 +11541,7 @@
         <v>382.09</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>A186+0.75</f>
         <v>2006.75</v>
@@ -12864,7 +11554,7 @@
         <v>379.59</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2007</v>
       </c>
@@ -12875,7 +11565,7 @@
         <v>384.02</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <f>A190+0.25</f>
         <v>2007.25</v>
@@ -12888,7 +11578,7 @@
         <v>386.52</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <f>A190+0.5</f>
         <v>2007.5</v>
@@ -12901,7 +11591,7 @@
         <v>384.02</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <f>A190+0.75</f>
         <v>2007.75</v>
@@ -12914,7 +11604,7 @@
         <v>381.52</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2008</v>
       </c>
@@ -12925,7 +11615,7 @@
         <v>385.83</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <f>A194+0.25</f>
         <v>2008.25</v>
@@ -12938,7 +11628,7 @@
         <v>388.33</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <f>A194+0.5</f>
         <v>2008.5</v>
@@ -12951,7 +11641,7 @@
         <v>385.83</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <f>A194+0.75</f>
         <v>2008.75</v>
@@ -12964,7 +11654,7 @@
         <v>383.33</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2009</v>
       </c>
@@ -12975,7 +11665,7 @@
         <v>387.64</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <f>A198+0.25</f>
         <v>2009.25</v>
@@ -12988,7 +11678,7 @@
         <v>390.14</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <f>A198+0.5</f>
         <v>2009.5</v>
@@ -13001,7 +11691,7 @@
         <v>387.64</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <f>A198+0.75</f>
         <v>2009.75</v>
@@ -13014,7 +11704,7 @@
         <v>385.14</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2010</v>
       </c>
@@ -13025,7 +11715,7 @@
         <v>390.1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <f>A202+0.25</f>
         <v>2010.25</v>
@@ -13038,7 +11728,7 @@
         <v>392.6</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <f>A202+0.5</f>
         <v>2010.5</v>
@@ -13051,7 +11741,7 @@
         <v>390.1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <f>A202+0.75</f>
         <v>2010.75</v>
@@ -13064,7 +11754,7 @@
         <v>387.6</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2011</v>
       </c>
@@ -13075,7 +11765,7 @@
         <v>391.85</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <f>A206+0.25</f>
         <v>2011.25</v>
@@ -13088,7 +11778,7 @@
         <v>394.35</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <f>A206+0.5</f>
         <v>2011.5</v>
@@ -13101,7 +11791,7 @@
         <v>391.85</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <f>A206+0.75</f>
         <v>2011.75</v>
@@ -13114,7 +11804,7 @@
         <v>389.35</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2012</v>
       </c>
@@ -13125,7 +11815,7 @@
         <v>394.06</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <f>A210+0.25</f>
         <v>2012.25</v>
@@ -13138,7 +11828,7 @@
         <v>396.56</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <f>A210+0.5</f>
         <v>2012.5</v>
@@ -13151,7 +11841,7 @@
         <v>394.06</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <f>A210+0.75</f>
         <v>2012.75</v>
@@ -13164,7 +11854,7 @@
         <v>391.56</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2013</v>
       </c>
@@ -13175,7 +11865,7 @@
         <v>396.74</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <f>A214+0.25</f>
         <v>2013.25</v>
@@ -13188,7 +11878,7 @@
         <v>399.24</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <f>A214+0.5</f>
         <v>2013.5</v>
@@ -13201,7 +11891,7 @@
         <v>396.74</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <f>A214+0.75</f>
         <v>2013.75</v>
@@ -13214,7 +11904,7 @@
         <v>394.24</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2014</v>
       </c>
@@ -13225,7 +11915,7 @@
         <v>398.87</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <f>A218+0.25</f>
         <v>2014.25</v>
@@ -13238,7 +11928,7 @@
         <v>401.37</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <f>A218+0.5</f>
         <v>2014.5</v>
@@ -13251,7 +11941,7 @@
         <v>398.87</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <f>A218+0.75</f>
         <v>2014.75</v>
@@ -13264,7 +11954,7 @@
         <v>396.37</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2015</v>
       </c>
@@ -13275,7 +11965,7 @@
         <v>401.01</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <f>A222+0.25</f>
         <v>2015.25</v>
@@ -13288,7 +11978,7 @@
         <v>403.51</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <f>A222+0.5</f>
         <v>2015.5</v>
@@ -13301,7 +11991,7 @@
         <v>401.01</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <f>A222+0.75</f>
         <v>2015.75</v>
@@ -13314,7 +12004,7 @@
         <v>398.51</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2016</v>
       </c>
@@ -13325,7 +12015,7 @@
         <v>404.41</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <f>A226+0.25</f>
         <v>2016.25</v>
@@ -13338,7 +12028,7 @@
         <v>406.91</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <f>A226+0.5</f>
         <v>2016.5</v>
@@ -13351,7 +12041,7 @@
         <v>404.41</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <f>A226+0.75</f>
         <v>2016.75</v>
@@ -13364,7 +12054,7 @@
         <v>401.91</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2017</v>
       </c>
@@ -13375,7 +12065,7 @@
         <v>406.76</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <f>A230+0.25</f>
         <v>2017.25</v>
@@ -13388,7 +12078,7 @@
         <v>409.26</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <f>A230+0.5</f>
         <v>2017.5</v>
@@ -13401,7 +12091,7 @@
         <v>406.76</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <f>A230+0.75</f>
         <v>2017.75</v>
@@ -13414,7 +12104,7 @@
         <v>404.26</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2018</v>
       </c>
@@ -13425,7 +12115,7 @@
         <v>408.72</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <f>A234+0.25</f>
         <v>2018.25</v>
@@ -13438,7 +12128,7 @@
         <v>411.22</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <f>A234+0.5</f>
         <v>2018.5</v>
@@ -13451,7 +12141,7 @@
         <v>408.72</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <f>A234+0.75</f>
         <v>2018.75</v>
@@ -13464,7 +12154,7 @@
         <v>406.22</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2019</v>
       </c>
@@ -13475,7 +12165,7 @@
         <v>411.66</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <f>A238+0.25</f>
         <v>2019.25</v>
@@ -13488,7 +12178,7 @@
         <v>414.16</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <f>A238+0.5</f>
         <v>2019.5</v>
@@ -13501,7 +12191,7 @@
         <v>411.66</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>A238+0.75</f>
         <v>2019.75</v>
@@ -13514,7 +12204,7 @@
         <v>409.16</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2020</v>
       </c>
@@ -13525,7 +12215,7 @@
         <v>414.24</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <f>A242+0.25</f>
         <v>2020.25</v>
@@ -13538,7 +12228,7 @@
         <v>416.74</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>A242+0.5</f>
         <v>2020.5</v>
@@ -13551,7 +12241,7 @@
         <v>414.24</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>A242+0.75</f>
         <v>2020.75</v>
@@ -13564,7 +12254,7 @@
         <v>411.74</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2021</v>
       </c>
@@ -13575,7 +12265,7 @@
         <v>416.45</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <f>A246+0.25</f>
         <v>2021.25</v>
@@ -13588,7 +12278,7 @@
         <v>418.95</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <f>A246+0.5</f>
         <v>2021.5</v>
@@ -13601,7 +12291,7 @@
         <v>416.45</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <f>A246+0.75</f>
         <v>2021.75</v>
@@ -13616,5 +12306,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CO2 Ryan Meadows.xlsx
+++ b/CO2 Ryan Meadows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surat\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm0990889\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C6D448-2B4E-4716-A808-79ED18D69725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8243C5E3-08CC-482D-9382-83FDCD862CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F4375E74-637B-44C3-817D-6F7E5A51A44B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{F4375E74-637B-44C3-817D-6F7E5A51A44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2672,6 +2672,806 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23037489063867017"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 Concentration In Mauna Loa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 1'!$C$4:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 1'!$D$4:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>316.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>323.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>326.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>327.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>329.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>331.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>332.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>333.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>335.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>336.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>338.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>340.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>341.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>344.85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>347.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>349.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>351.69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>353.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>354.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>355.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>356.54</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>357.21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>358.96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360.97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>362.74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>363.88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>366.84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>368.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>371.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>373.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>375.98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>377.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>379.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>382.09</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>384.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>385.83</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>387.64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>390.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>391.85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>394.06</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>396.74</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>398.87</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>401.01</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>404.41</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>406.76</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>408.72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>411.66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>414.24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>416.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-701D-46F1-BF9B-D50CE03162EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="500825168"/>
+        <c:axId val="500825496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="500825168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Since 1960</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500825496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="500825496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CO2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Concentrations (ppm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500825168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4585,7 +5385,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5254,6 +6054,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7319,6 +8159,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7943,6 +9299,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041421F7-FBCF-4316-A9E5-19B50F17DC3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8465,8 +9857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8933728-461B-4D69-B22E-6574FCC53F8A}">
   <dimension ref="B3:D65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9179,7 +10571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2058E52-A05B-405F-BCB6-82644467E36A}">
   <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
